--- a/Bon Blanko/Desa Banjarwangi/Bon Blanko Desa Banjarwangi.xlsx
+++ b/Bon Blanko/Desa Banjarwangi/Bon Blanko Desa Banjarwangi.xlsx
@@ -794,14 +794,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,40 +1161,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1760,7 +1760,7 @@
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>99074</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1778,7 +1778,7 @@
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>99075</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1796,7 +1796,7 @@
       <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>99076</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1814,7 +1814,7 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>99077</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1832,7 +1832,7 @@
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>99078</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1850,7 +1850,7 @@
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>99079</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -1868,7 +1868,7 @@
       <c r="A42" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>99080</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1886,7 +1886,7 @@
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>99081</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1904,7 +1904,7 @@
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>99082</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1922,7 +1922,7 @@
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>99083</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -1940,7 +1940,7 @@
       <c r="A46" s="2">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>99084</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1958,7 +1958,7 @@
       <c r="A47" s="2">
         <v>42</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>99085</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1976,7 +1976,7 @@
       <c r="A48" s="2">
         <v>43</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>99086</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1994,7 +1994,7 @@
       <c r="A49" s="2">
         <v>44</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>99087</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2012,7 +2012,7 @@
       <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>99088</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2030,7 +2030,7 @@
       <c r="A51" s="2">
         <v>46</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>99089</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2048,7 +2048,7 @@
       <c r="A52" s="2">
         <v>47</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>99090</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2066,7 +2066,7 @@
       <c r="A53" s="2">
         <v>48</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>99091</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2084,7 +2084,7 @@
       <c r="A54" s="2">
         <v>49</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>99092</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2102,7 +2102,7 @@
       <c r="A55" s="2">
         <v>50</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>99093</v>
       </c>
       <c r="C55" s="3" t="s">
